--- a/result/P3-paper-manual.xlsx
+++ b/result/P3-paper-manual.xlsx
@@ -14,21 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>t</t>
   </si>
   <si>
-    <t>zg</t>
+    <t>位移</t>
   </si>
   <si>
-    <t>zg'</t>
+    <t>速度</t>
   </si>
   <si>
-    <t>gamma</t>
+    <t>角度</t>
   </si>
   <si>
-    <t>gamma'</t>
+    <t>角速度</t>
+  </si>
+  <si>
+    <t>浮子</t>
+  </si>
+  <si>
+    <t>振子</t>
   </si>
 </sst>
 </file>
@@ -36,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -58,38 +64,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,22 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -125,9 +140,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +164,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,59 +179,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,181 +216,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,26 +410,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,6 +439,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,25 +494,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,154 +512,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -974,15 +983,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1">
         <v>10</v>
       </c>
@@ -993,13 +1002,25 @@
         <v>-0.363564270673436</v>
       </c>
       <c r="D1">
+        <v>0.222058555689696</v>
+      </c>
+      <c r="E1">
+        <v>-0.26764008184741</v>
+      </c>
+      <c r="F1">
+        <v>0.209731770108814</v>
+      </c>
+      <c r="G1">
+        <v>-0.0810897754723561</v>
+      </c>
+      <c r="H1">
         <v>0.00334286030945117</v>
       </c>
-      <c r="E1">
+      <c r="I1">
         <v>-0.00609852192905085</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>20</v>
       </c>
@@ -1010,13 +1031,25 @@
         <v>0.322316725882933</v>
       </c>
       <c r="D2">
+        <v>0.820831316711302</v>
+      </c>
+      <c r="E2">
+        <v>0.318459205393559</v>
+      </c>
+      <c r="F2">
+        <v>0.286024853531661</v>
+      </c>
+      <c r="G2">
+        <v>0.10797576000684</v>
+      </c>
+      <c r="H2">
         <v>0.0208969629181765</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>0.0150174826376132</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>40</v>
       </c>
@@ -1027,13 +1060,25 @@
         <v>0.25613130496045</v>
       </c>
       <c r="D3">
+        <v>0.385817084065485</v>
+      </c>
+      <c r="E3">
+        <v>0.0874375613532631</v>
+      </c>
+      <c r="F3">
+        <v>0.201236440820398</v>
+      </c>
+      <c r="G3">
+        <v>0.00638374985593611</v>
+      </c>
+      <c r="H3">
         <v>0.00603618252624639</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>0.0013465375327446</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>60</v>
       </c>
@@ -1044,13 +1089,25 @@
         <v>-0.0204315311506125</v>
       </c>
       <c r="D4">
+        <v>0.924709130240607</v>
+      </c>
+      <c r="E4">
+        <v>0.167332114598399</v>
+      </c>
+      <c r="F4">
+        <v>0.328744243830722</v>
+      </c>
+      <c r="G4">
+        <v>0.0752957815168944</v>
+      </c>
+      <c r="H4">
         <v>0.0259780278616708</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>0.012129974335035</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1061,13 +1118,25 @@
         <v>0.107308146764543</v>
       </c>
       <c r="D5">
+        <v>0.886722588094994</v>
+      </c>
+      <c r="E5">
+        <v>0.366977510365766</v>
+      </c>
+      <c r="F5">
+        <v>0.308579951412686</v>
+      </c>
+      <c r="G5">
+        <v>0.119527072851834</v>
+      </c>
+      <c r="H5">
         <v>0.0228937400965707</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>0.0187666351868178</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1152,38 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
